--- a/테이블/전투/공격/종족 공격 데이터 테이블.xlsx
+++ b/테이블/전투/공격/종족 공격 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\공격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E87C39-B921-4456-8ECF-C02D2683949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A92B0-B58B-440C-9E9D-DDF894C83ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도메인 정의" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EE06B3-461F-4CF7-8231-6933746FFFBD}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -937,17 +937,16 @@
   <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
